--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vtn-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vtn-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Vtn</t>
+  </si>
+  <si>
+    <t>Itga5</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Vtn</t>
-  </si>
-  <si>
-    <t>Itga5</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.293535</v>
+        <v>15.258635</v>
       </c>
       <c r="H2">
-        <v>6.587070000000001</v>
+        <v>30.51727</v>
       </c>
       <c r="I2">
-        <v>0.07458806695104117</v>
+        <v>0.2692367446232743</v>
       </c>
       <c r="J2">
-        <v>0.0652661766078026</v>
+        <v>0.2593040335198289</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N2">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O2">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P2">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q2">
-        <v>156.32481292197</v>
+        <v>655.522327283075</v>
       </c>
       <c r="R2">
-        <v>625.2992516878801</v>
+        <v>2622.0893091323</v>
       </c>
       <c r="S2">
-        <v>0.01672623176418349</v>
+        <v>0.05194626814675423</v>
       </c>
       <c r="T2">
-        <v>0.01074901024334003</v>
+        <v>0.03660714154826213</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.293535</v>
+        <v>15.258635</v>
       </c>
       <c r="H3">
-        <v>6.587070000000001</v>
+        <v>30.51727</v>
       </c>
       <c r="I3">
-        <v>0.07458806695104117</v>
+        <v>0.2692367446232743</v>
       </c>
       <c r="J3">
-        <v>0.0652661766078026</v>
+        <v>0.2593040335198289</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>209.931938</v>
       </c>
       <c r="O3">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P3">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q3">
-        <v>230.47272847361</v>
+        <v>1067.758272261543</v>
       </c>
       <c r="R3">
-        <v>1382.83637084166</v>
+        <v>6406.54963356926</v>
       </c>
       <c r="S3">
-        <v>0.02465981055545889</v>
+        <v>0.08461352911761487</v>
       </c>
       <c r="T3">
-        <v>0.02377121398261264</v>
+        <v>0.08944221253457069</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.293535</v>
+        <v>15.258635</v>
       </c>
       <c r="H4">
-        <v>6.587070000000001</v>
+        <v>30.51727</v>
       </c>
       <c r="I4">
-        <v>0.07458806695104117</v>
+        <v>0.2692367446232743</v>
       </c>
       <c r="J4">
-        <v>0.0652661766078026</v>
+        <v>0.2593040335198289</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N4">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O4">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P4">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q4">
-        <v>108.985179914555</v>
+        <v>584.9048202784267</v>
       </c>
       <c r="R4">
-        <v>653.9110794873301</v>
+        <v>3509.42892167056</v>
       </c>
       <c r="S4">
-        <v>0.01166104947793537</v>
+        <v>0.04635024829808985</v>
       </c>
       <c r="T4">
-        <v>0.01124085287591443</v>
+        <v>0.04899534155519378</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.293535</v>
+        <v>15.258635</v>
       </c>
       <c r="H5">
-        <v>6.587070000000001</v>
+        <v>30.51727</v>
       </c>
       <c r="I5">
-        <v>0.07458806695104117</v>
+        <v>0.2692367446232743</v>
       </c>
       <c r="J5">
-        <v>0.0652661766078026</v>
+        <v>0.2593040335198289</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N5">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O5">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P5">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q5">
-        <v>36.63904044092251</v>
+        <v>250.4756738315825</v>
       </c>
       <c r="R5">
-        <v>146.55616176369</v>
+        <v>1001.90269532633</v>
       </c>
       <c r="S5">
-        <v>0.003920254696470092</v>
+        <v>0.01984871601707574</v>
       </c>
       <c r="T5">
-        <v>0.002519327633561338</v>
+        <v>0.01398762187758333</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>2</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.293535</v>
+        <v>15.258635</v>
       </c>
       <c r="H6">
-        <v>6.587070000000001</v>
+        <v>30.51727</v>
       </c>
       <c r="I6">
-        <v>0.07458806695104117</v>
+        <v>0.2692367446232743</v>
       </c>
       <c r="J6">
-        <v>0.0652661766078026</v>
+        <v>0.2593040335198289</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N6">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O6">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P6">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q6">
-        <v>84.47911456421502</v>
+        <v>398.0902290394634</v>
       </c>
       <c r="R6">
-        <v>506.8746873852901</v>
+        <v>2388.54137423678</v>
       </c>
       <c r="S6">
-        <v>0.009038982507142874</v>
+        <v>0.03154629663034621</v>
       </c>
       <c r="T6">
-        <v>0.008713269993666718</v>
+        <v>0.0333465652279789</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.293535</v>
+        <v>15.258635</v>
       </c>
       <c r="H7">
-        <v>6.587070000000001</v>
+        <v>30.51727</v>
       </c>
       <c r="I7">
-        <v>0.07458806695104117</v>
+        <v>0.2692367446232743</v>
       </c>
       <c r="J7">
-        <v>0.0652661766078026</v>
+        <v>0.2593040335198289</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N7">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O7">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P7">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q7">
-        <v>80.20566726980501</v>
+        <v>440.8112688468651</v>
       </c>
       <c r="R7">
-        <v>481.23400361883</v>
+        <v>2644.86761308119</v>
       </c>
       <c r="S7">
-        <v>0.008581737949850465</v>
+        <v>0.03493168641339341</v>
       </c>
       <c r="T7">
-        <v>0.008272501878707428</v>
+        <v>0.03692515077624007</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>13.025402</v>
       </c>
       <c r="I8">
-        <v>0.09832794210883093</v>
+        <v>0.07661054067395251</v>
       </c>
       <c r="J8">
-        <v>0.1290586235336234</v>
+        <v>0.1106763244817523</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N8">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O8">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P8">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q8">
-        <v>206.0798433783613</v>
+        <v>186.5269912814967</v>
       </c>
       <c r="R8">
-        <v>1236.479060270168</v>
+        <v>1119.16194768898</v>
       </c>
       <c r="S8">
-        <v>0.02204985349314734</v>
+        <v>0.01478116107177496</v>
       </c>
       <c r="T8">
-        <v>0.02125530463796827</v>
+        <v>0.01562468512868342</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>13.025402</v>
       </c>
       <c r="I9">
-        <v>0.09832794210883093</v>
+        <v>0.07661054067395251</v>
       </c>
       <c r="J9">
-        <v>0.1290586235336234</v>
+        <v>0.1106763244817523</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>209.931938</v>
       </c>
       <c r="O9">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P9">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q9">
         <v>303.8275427876751</v>
@@ -1013,10 +1013,10 @@
         <v>2734.447885089076</v>
       </c>
       <c r="S9">
-        <v>0.03250853016882015</v>
+        <v>0.02407653614703279</v>
       </c>
       <c r="T9">
-        <v>0.04700566688247591</v>
+        <v>0.03817578617065753</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>13.025402</v>
       </c>
       <c r="I10">
-        <v>0.09832794210883093</v>
+        <v>0.07661054067395251</v>
       </c>
       <c r="J10">
-        <v>0.1290586235336234</v>
+        <v>0.1106763244817523</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N10">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O10">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P10">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q10">
-        <v>143.6729613651598</v>
+        <v>166.4329829386062</v>
       </c>
       <c r="R10">
-        <v>1293.056652286438</v>
+        <v>1497.896846447456</v>
       </c>
       <c r="S10">
-        <v>0.0153725259932968</v>
+        <v>0.0131888297322016</v>
       </c>
       <c r="T10">
-        <v>0.02222788395016927</v>
+        <v>0.02091222510675772</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>13.025402</v>
       </c>
       <c r="I11">
-        <v>0.09832794210883093</v>
+        <v>0.07661054067395251</v>
       </c>
       <c r="J11">
-        <v>0.1290586235336234</v>
+        <v>0.1106763244817523</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N11">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O11">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P11">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q11">
-        <v>48.30050696665568</v>
+        <v>71.27213198465968</v>
       </c>
       <c r="R11">
-        <v>289.803041799934</v>
+        <v>427.6327919079581</v>
       </c>
       <c r="S11">
-        <v>0.005167992583845921</v>
+        <v>0.005647895007346121</v>
       </c>
       <c r="T11">
-        <v>0.004981768099753777</v>
+        <v>0.005970206312016692</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>13.025402</v>
       </c>
       <c r="I12">
-        <v>0.09832794210883093</v>
+        <v>0.07661054067395251</v>
       </c>
       <c r="J12">
-        <v>0.1290586235336234</v>
+        <v>0.1106763244817523</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N12">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O12">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P12">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q12">
-        <v>111.3671103948549</v>
+        <v>113.2754287547365</v>
       </c>
       <c r="R12">
-        <v>1002.303993553694</v>
+        <v>1019.478858792628</v>
       </c>
       <c r="S12">
-        <v>0.01191590806701652</v>
+        <v>0.008976407898904559</v>
       </c>
       <c r="T12">
-        <v>0.01722979175901371</v>
+        <v>0.01423300371932505</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>13.025402</v>
       </c>
       <c r="I13">
-        <v>0.09832794210883093</v>
+        <v>0.07661054067395251</v>
       </c>
       <c r="J13">
-        <v>0.1290586235336234</v>
+        <v>0.1106763244817523</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N13">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O13">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P13">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q13">
-        <v>105.7335111430376</v>
+        <v>125.4315776577327</v>
       </c>
       <c r="R13">
-        <v>951.6016002873379</v>
+        <v>1128.884198919594</v>
       </c>
       <c r="S13">
-        <v>0.0113131318027042</v>
+        <v>0.00993971081669248</v>
       </c>
       <c r="T13">
-        <v>0.01635820820424247</v>
+        <v>0.01576041804431192</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1011933333333333</v>
+        <v>37.0732365</v>
       </c>
       <c r="H14">
-        <v>0.30358</v>
+        <v>74.146473</v>
       </c>
       <c r="I14">
-        <v>0.002291706364640331</v>
+        <v>0.6541527147027733</v>
       </c>
       <c r="J14">
-        <v>0.003007939173956965</v>
+        <v>0.6300196419984189</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N14">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O14">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P14">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q14">
-        <v>4.803054742786667</v>
+        <v>1592.693859601193</v>
       </c>
       <c r="R14">
-        <v>28.81832845672</v>
+        <v>6370.77543840477</v>
       </c>
       <c r="S14">
-        <v>0.0005139107816748897</v>
+        <v>0.1262115703204799</v>
       </c>
       <c r="T14">
-        <v>0.0004953924172163292</v>
+        <v>0.08894276691248584</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1011933333333333</v>
+        <v>37.0732365</v>
       </c>
       <c r="H15">
-        <v>0.30358</v>
+        <v>74.146473</v>
       </c>
       <c r="I15">
-        <v>0.002291706364640331</v>
+        <v>0.6541527147027733</v>
       </c>
       <c r="J15">
-        <v>0.003007939173956965</v>
+        <v>0.6300196419984189</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>209.931938</v>
       </c>
       <c r="O15">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P15">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q15">
-        <v>7.08123752644889</v>
+        <v>2594.285462125779</v>
       </c>
       <c r="R15">
-        <v>63.73113773804</v>
+        <v>15565.71277275467</v>
       </c>
       <c r="S15">
-        <v>0.0007576687144589029</v>
+        <v>0.2055817821238251</v>
       </c>
       <c r="T15">
-        <v>0.001095550091443016</v>
+        <v>0.2173138225258946</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1011933333333333</v>
+        <v>37.0732365</v>
       </c>
       <c r="H16">
-        <v>0.30358</v>
+        <v>74.146473</v>
       </c>
       <c r="I16">
-        <v>0.002291706364640331</v>
+        <v>0.6541527147027733</v>
       </c>
       <c r="J16">
-        <v>0.003007939173956965</v>
+        <v>0.6300196419984189</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N16">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O16">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P16">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q16">
-        <v>3.348552130002223</v>
+        <v>1421.117598800424</v>
       </c>
       <c r="R16">
-        <v>30.13696917002</v>
+        <v>8526.705592802544</v>
       </c>
       <c r="S16">
-        <v>0.0003582838703208578</v>
+        <v>0.1126151662313705</v>
       </c>
       <c r="T16">
-        <v>0.0005180600959258216</v>
+        <v>0.1190418333536373</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1011933333333333</v>
+        <v>37.0732365</v>
       </c>
       <c r="H17">
-        <v>0.30358</v>
+        <v>74.146473</v>
       </c>
       <c r="I17">
-        <v>0.002291706364640331</v>
+        <v>0.6541527147027733</v>
       </c>
       <c r="J17">
-        <v>0.003007939173956965</v>
+        <v>0.6300196419984189</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N17">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O17">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P17">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q17">
-        <v>1.125728626643334</v>
+        <v>608.5697635112919</v>
       </c>
       <c r="R17">
-        <v>6.754371759860001</v>
+        <v>2434.279054045167</v>
       </c>
       <c r="S17">
-        <v>0.0001204491952420313</v>
+        <v>0.04822555511173751</v>
       </c>
       <c r="T17">
-        <v>0.0001161089047173555</v>
+        <v>0.03398511163942389</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1011933333333333</v>
+        <v>37.0732365</v>
       </c>
       <c r="H18">
-        <v>0.30358</v>
+        <v>74.146473</v>
       </c>
       <c r="I18">
-        <v>0.002291706364640331</v>
+        <v>0.6541527147027733</v>
       </c>
       <c r="J18">
-        <v>0.003007939173956965</v>
+        <v>0.6300196419984189</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N18">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O18">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P18">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q18">
-        <v>2.595607212251112</v>
+        <v>967.2223766751871</v>
       </c>
       <c r="R18">
-        <v>23.36046491026</v>
+        <v>5803.334260051123</v>
       </c>
       <c r="S18">
-        <v>0.0002777212842248459</v>
+        <v>0.07664665388981241</v>
       </c>
       <c r="T18">
-        <v>0.000401570729425578</v>
+        <v>0.08102068757523449</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1011933333333333</v>
+        <v>37.0732365</v>
       </c>
       <c r="H19">
-        <v>0.30358</v>
+        <v>74.146473</v>
       </c>
       <c r="I19">
-        <v>0.002291706364640331</v>
+        <v>0.6541527147027733</v>
       </c>
       <c r="J19">
-        <v>0.003007939173956965</v>
+        <v>0.6300196419984189</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,772 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N19">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O19">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P19">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q19">
-        <v>2.464306231224445</v>
+        <v>1071.019814146214</v>
       </c>
       <c r="R19">
-        <v>22.17875608102</v>
+        <v>6426.118884877282</v>
       </c>
       <c r="S19">
-        <v>0.0002636725187188035</v>
+        <v>0.08487198702554787</v>
       </c>
       <c r="T19">
-        <v>0.0003812569352288651</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>28.2492</v>
-      </c>
-      <c r="H20">
-        <v>56.4984</v>
-      </c>
-      <c r="I20">
-        <v>0.6397543128927891</v>
-      </c>
-      <c r="J20">
-        <v>0.5597989018574683</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>47.464142</v>
-      </c>
-      <c r="N20">
-        <v>94.928284</v>
-      </c>
-      <c r="O20">
-        <v>0.2242480928640021</v>
-      </c>
-      <c r="P20">
-        <v>0.1646949584305047</v>
-      </c>
-      <c r="Q20">
-        <v>1340.8240401864</v>
-      </c>
-      <c r="R20">
-        <v>5363.296160745601</v>
-      </c>
-      <c r="S20">
-        <v>0.143463684567728</v>
-      </c>
-      <c r="T20">
-        <v>0.09219605687085794</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>28.2492</v>
-      </c>
-      <c r="H21">
-        <v>56.4984</v>
-      </c>
-      <c r="I21">
-        <v>0.6397543128927891</v>
-      </c>
-      <c r="J21">
-        <v>0.5597989018574683</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>69.97731266666666</v>
-      </c>
-      <c r="N21">
-        <v>209.931938</v>
-      </c>
-      <c r="O21">
-        <v>0.3306133482671609</v>
-      </c>
-      <c r="P21">
-        <v>0.364219496500593</v>
-      </c>
-      <c r="Q21">
-        <v>1976.8031009832</v>
-      </c>
-      <c r="R21">
-        <v>11860.8186058992</v>
-      </c>
-      <c r="S21">
-        <v>0.2115113154538419</v>
-      </c>
-      <c r="T21">
-        <v>0.203889674176112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>28.2492</v>
-      </c>
-      <c r="H22">
-        <v>56.4984</v>
-      </c>
-      <c r="I22">
-        <v>0.6397543128927891</v>
-      </c>
-      <c r="J22">
-        <v>0.5597989018574683</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>33.09063966666667</v>
-      </c>
-      <c r="N22">
-        <v>99.271919</v>
-      </c>
-      <c r="O22">
-        <v>0.1563393442759357</v>
-      </c>
-      <c r="P22">
-        <v>0.1722309082614559</v>
-      </c>
-      <c r="Q22">
-        <v>934.7840980716001</v>
-      </c>
-      <c r="R22">
-        <v>5608.7045884296</v>
-      </c>
-      <c r="S22">
-        <v>0.1000187697753604</v>
-      </c>
-      <c r="T22">
-        <v>0.09641467331067739</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>28.2492</v>
-      </c>
-      <c r="H23">
-        <v>56.4984</v>
-      </c>
-      <c r="I23">
-        <v>0.6397543128927891</v>
-      </c>
-      <c r="J23">
-        <v>0.5597989018574683</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>11.1245335</v>
-      </c>
-      <c r="N23">
-        <v>22.249067</v>
-      </c>
-      <c r="O23">
-        <v>0.05255873837088856</v>
-      </c>
-      <c r="P23">
-        <v>0.03860081537640052</v>
-      </c>
-      <c r="Q23">
-        <v>314.2591717482001</v>
-      </c>
-      <c r="R23">
-        <v>1257.0366869928</v>
-      </c>
-      <c r="S23">
-        <v>0.03362467955297967</v>
-      </c>
-      <c r="T23">
-        <v>0.02160869405851189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>28.2492</v>
-      </c>
-      <c r="H24">
-        <v>56.4984</v>
-      </c>
-      <c r="I24">
-        <v>0.6397543128927891</v>
-      </c>
-      <c r="J24">
-        <v>0.5597989018574683</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>25.64998233333334</v>
-      </c>
-      <c r="N24">
-        <v>76.94994700000001</v>
-      </c>
-      <c r="O24">
-        <v>0.121185370215801</v>
-      </c>
-      <c r="P24">
-        <v>0.1335036070218497</v>
-      </c>
-      <c r="Q24">
-        <v>724.5914809308001</v>
-      </c>
-      <c r="R24">
-        <v>4347.548885584801</v>
-      </c>
-      <c r="S24">
-        <v>0.07752886325506801</v>
-      </c>
-      <c r="T24">
-        <v>0.07473517260484246</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>28.2492</v>
-      </c>
-      <c r="H25">
-        <v>56.4984</v>
-      </c>
-      <c r="I25">
-        <v>0.6397543128927891</v>
-      </c>
-      <c r="J25">
-        <v>0.5597989018574683</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>24.35245633333333</v>
-      </c>
-      <c r="N25">
-        <v>73.05736899999999</v>
-      </c>
-      <c r="O25">
-        <v>0.1150551060062118</v>
-      </c>
-      <c r="P25">
-        <v>0.126750214409196</v>
-      </c>
-      <c r="Q25">
-        <v>687.9374094516</v>
-      </c>
-      <c r="R25">
-        <v>4127.6244567096</v>
-      </c>
-      <c r="S25">
-        <v>0.07360700028781103</v>
-      </c>
-      <c r="T25">
-        <v>0.07095463083646655</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>8.170596999999999</v>
-      </c>
-      <c r="H26">
-        <v>24.511791</v>
-      </c>
-      <c r="I26">
-        <v>0.1850379716826984</v>
-      </c>
-      <c r="J26">
-        <v>0.2428683588271486</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>47.464142</v>
-      </c>
-      <c r="N26">
-        <v>94.928284</v>
-      </c>
-      <c r="O26">
-        <v>0.2242480928640021</v>
-      </c>
-      <c r="P26">
-        <v>0.1646949584305047</v>
-      </c>
-      <c r="Q26">
-        <v>387.810376232774</v>
-      </c>
-      <c r="R26">
-        <v>2326.862257396644</v>
-      </c>
-      <c r="S26">
-        <v>0.04149441225726834</v>
-      </c>
-      <c r="T26">
-        <v>0.03999919426112215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>8.170596999999999</v>
-      </c>
-      <c r="H27">
-        <v>24.511791</v>
-      </c>
-      <c r="I27">
-        <v>0.1850379716826984</v>
-      </c>
-      <c r="J27">
-        <v>0.2428683588271486</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>69.97731266666666</v>
-      </c>
-      <c r="N27">
-        <v>209.931938</v>
-      </c>
-      <c r="O27">
-        <v>0.3306133482671609</v>
-      </c>
-      <c r="P27">
-        <v>0.364219496500593</v>
-      </c>
-      <c r="Q27">
-        <v>571.7564209423285</v>
-      </c>
-      <c r="R27">
-        <v>5145.807788480958</v>
-      </c>
-      <c r="S27">
-        <v>0.06117602337458101</v>
-      </c>
-      <c r="T27">
-        <v>0.08845739136794943</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>8.170596999999999</v>
-      </c>
-      <c r="H28">
-        <v>24.511791</v>
-      </c>
-      <c r="I28">
-        <v>0.1850379716826984</v>
-      </c>
-      <c r="J28">
-        <v>0.2428683588271486</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>33.09063966666667</v>
-      </c>
-      <c r="N28">
-        <v>99.271919</v>
-      </c>
-      <c r="O28">
-        <v>0.1563393442759357</v>
-      </c>
-      <c r="P28">
-        <v>0.1722309082614559</v>
-      </c>
-      <c r="Q28">
-        <v>270.3702811885477</v>
-      </c>
-      <c r="R28">
-        <v>2433.332530696929</v>
-      </c>
-      <c r="S28">
-        <v>0.02892871515902222</v>
-      </c>
-      <c r="T28">
-        <v>0.04182943802876899</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>8.170596999999999</v>
-      </c>
-      <c r="H29">
-        <v>24.511791</v>
-      </c>
-      <c r="I29">
-        <v>0.1850379716826984</v>
-      </c>
-      <c r="J29">
-        <v>0.2428683588271486</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>11.1245335</v>
-      </c>
-      <c r="N29">
-        <v>22.249067</v>
-      </c>
-      <c r="O29">
-        <v>0.05255873837088856</v>
-      </c>
-      <c r="P29">
-        <v>0.03860081537640052</v>
-      </c>
-      <c r="Q29">
-        <v>90.89408004149951</v>
-      </c>
-      <c r="R29">
-        <v>545.3644802489971</v>
-      </c>
-      <c r="S29">
-        <v>0.00972536234235083</v>
-      </c>
-      <c r="T29">
-        <v>0.009374916679856156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>8.170596999999999</v>
-      </c>
-      <c r="H30">
-        <v>24.511791</v>
-      </c>
-      <c r="I30">
-        <v>0.1850379716826984</v>
-      </c>
-      <c r="J30">
-        <v>0.2428683588271486</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>25.64998233333334</v>
-      </c>
-      <c r="N30">
-        <v>76.94994700000001</v>
-      </c>
-      <c r="O30">
-        <v>0.121185370215801</v>
-      </c>
-      <c r="P30">
-        <v>0.1335036070218497</v>
-      </c>
-      <c r="Q30">
-        <v>209.5756687027863</v>
-      </c>
-      <c r="R30">
-        <v>1886.181018325077</v>
-      </c>
-      <c r="S30">
-        <v>0.0224238951023487</v>
-      </c>
-      <c r="T30">
-        <v>0.03242380193490123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>8.170596999999999</v>
-      </c>
-      <c r="H31">
-        <v>24.511791</v>
-      </c>
-      <c r="I31">
-        <v>0.1850379716826984</v>
-      </c>
-      <c r="J31">
-        <v>0.2428683588271486</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>24.35245633333333</v>
-      </c>
-      <c r="N31">
-        <v>73.05736899999999</v>
-      </c>
-      <c r="O31">
-        <v>0.1150551060062118</v>
-      </c>
-      <c r="P31">
-        <v>0.126750214409196</v>
-      </c>
-      <c r="Q31">
-        <v>198.9741066597643</v>
-      </c>
-      <c r="R31">
-        <v>1790.766959937879</v>
-      </c>
-      <c r="S31">
-        <v>0.02128956344712728</v>
-      </c>
-      <c r="T31">
-        <v>0.03078361655455062</v>
+        <v>0.08971541999174282</v>
       </c>
     </row>
   </sheetData>
